--- a/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_23.xlsx
+++ b/ArtigoKrigingVsg/peaks/Power/content/results/metrics_1_23.xlsx
@@ -508,491 +508,491 @@
     <row r="2">
       <c r="A2" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_9</t>
+          <t>model_1_23_0</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.9909990628871206</v>
+        <v>0.8431612111367988</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7842594387893526</v>
+        <v>0.6106428021381372</v>
       </c>
       <c r="D2" t="n">
-        <v>0.7838859577679149</v>
+        <v>0.7217941330494161</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9945474272942936</v>
+        <v>0.7801023251785535</v>
       </c>
       <c r="F2" t="n">
-        <v>0.03746664102887293</v>
+        <v>0.3717381422701612</v>
       </c>
       <c r="G2" t="n">
-        <v>1.442658126209541</v>
+        <v>2.603633374927322</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7730273980520127</v>
+        <v>0.9951262547792261</v>
       </c>
       <c r="I2" t="n">
-        <v>0.03356673673300194</v>
+        <v>0.7718649438249205</v>
       </c>
       <c r="J2" t="n">
-        <v>0.6204606726575116</v>
+        <v>1.041077473477759</v>
       </c>
       <c r="K2" t="n">
-        <v>0.1935630156534893</v>
+        <v>0.6097033231582072</v>
       </c>
       <c r="L2" t="n">
-        <v>1.576059975224283</v>
+        <v>0.7864322875054282</v>
       </c>
       <c r="M2" t="n">
-        <v>0.1966114396580034</v>
+        <v>0.6193055410182284</v>
       </c>
       <c r="N2" t="n">
-        <v>136.5686086289473</v>
+        <v>35.97913118240927</v>
       </c>
       <c r="O2" t="n">
-        <v>277.9037811721637</v>
+        <v>72.94371477063508</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_8</t>
+          <t>model_1_23_1</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9908438246270455</v>
+        <v>0.8432600525443523</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7841200715195829</v>
+        <v>0.6105822674839219</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7839446510322277</v>
+        <v>0.7216321624042481</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9945358605630091</v>
+        <v>0.7789241685956321</v>
       </c>
       <c r="F3" t="n">
-        <v>0.03811282443080553</v>
+        <v>0.3715038690939291</v>
       </c>
       <c r="G3" t="n">
-        <v>1.443590075784219</v>
+        <v>2.604038170438796</v>
       </c>
       <c r="H3" t="n">
-        <v>0.772817455648797</v>
+        <v>0.9957056143853944</v>
       </c>
       <c r="I3" t="n">
-        <v>0.03363794301393423</v>
+        <v>0.7760004025805985</v>
       </c>
       <c r="J3" t="n">
-        <v>0.6238830386120187</v>
+        <v>1.033069585086408</v>
       </c>
       <c r="K3" t="n">
-        <v>0.1952250609701673</v>
+        <v>0.609511172247014</v>
       </c>
       <c r="L3" t="n">
-        <v>1.585995223869091</v>
+        <v>0.7865668800603947</v>
       </c>
       <c r="M3" t="n">
-        <v>0.1982996605269833</v>
+        <v>0.6191103639222644</v>
       </c>
       <c r="N3" t="n">
-        <v>136.5344089085051</v>
+        <v>35.9803920001801</v>
       </c>
       <c r="O3" t="n">
-        <v>277.8695814517215</v>
+        <v>72.94497558840592</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_7</t>
+          <t>model_1_23_2</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.990682792477429</v>
+        <v>0.8424599864493592</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7839820424822046</v>
+        <v>0.6101447961233479</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7840068702260632</v>
+        <v>0.7193873116968532</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9945168850584923</v>
+        <v>0.7713490601782583</v>
       </c>
       <c r="F4" t="n">
-        <v>0.03878312505263251</v>
+        <v>0.3734001798599191</v>
       </c>
       <c r="G4" t="n">
-        <v>1.444513076592732</v>
+        <v>2.606963543441324</v>
       </c>
       <c r="H4" t="n">
-        <v>0.7725949012001238</v>
+        <v>1.003735315201823</v>
       </c>
       <c r="I4" t="n">
-        <v>0.03375475865287537</v>
+        <v>0.8025898635096032</v>
       </c>
       <c r="J4" t="n">
-        <v>0.6275083339572747</v>
+        <v>1.059926787821941</v>
       </c>
       <c r="K4" t="n">
-        <v>0.1969343165947279</v>
+        <v>0.6110647918673756</v>
       </c>
       <c r="L4" t="n">
-        <v>1.596301281444546</v>
+        <v>0.7854774283565742</v>
       </c>
       <c r="M4" t="n">
-        <v>0.200035835219002</v>
+        <v>0.6206884514985969</v>
       </c>
       <c r="N4" t="n">
-        <v>136.4995400965651</v>
+        <v>35.97020913238601</v>
       </c>
       <c r="O4" t="n">
-        <v>277.8347126397815</v>
+        <v>72.93479272061182</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_6</t>
+          <t>model_1_23_3</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.9905169025953208</v>
+        <v>0.8422475325020822</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7838422234090759</v>
+        <v>0.6099621306113112</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7840741482115867</v>
+        <v>0.7189848253438509</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9944921962319442</v>
+        <v>0.7701982431883349</v>
       </c>
       <c r="F5" t="n">
-        <v>0.03947364611564226</v>
+        <v>0.3739037366410647</v>
       </c>
       <c r="G5" t="n">
-        <v>1.445448047378551</v>
+        <v>2.608185028561411</v>
       </c>
       <c r="H5" t="n">
-        <v>0.7723542517469075</v>
+        <v>1.005174985549013</v>
       </c>
       <c r="I5" t="n">
-        <v>0.03390674623483286</v>
+        <v>0.8066293572968901</v>
       </c>
       <c r="J5" t="n">
-        <v>0.6312509316274405</v>
+        <v>1.06473064037596</v>
       </c>
       <c r="K5" t="n">
-        <v>0.198679757689711</v>
+        <v>0.6114766852800396</v>
       </c>
       <c r="L5" t="n">
-        <v>1.606918233899471</v>
+        <v>0.7851881293645374</v>
       </c>
       <c r="M5" t="n">
-        <v>0.20180876526643</v>
+        <v>0.6211068318207681</v>
       </c>
       <c r="N5" t="n">
-        <v>136.4642440333782</v>
+        <v>35.96751380671601</v>
       </c>
       <c r="O5" t="n">
-        <v>277.7994165765946</v>
+        <v>72.93209739494183</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_5</t>
+          <t>model_1_23_4</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9903460576544577</v>
+        <v>0.8406342673441375</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7837017779846719</v>
+        <v>0.6092435982309967</v>
       </c>
       <c r="D6" t="n">
-        <v>0.7841359490408734</v>
+        <v>0.7163190902130341</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9944599546974543</v>
+        <v>0.7624710507422749</v>
       </c>
       <c r="F6" t="n">
-        <v>0.04018479274300347</v>
+        <v>0.377727485836977</v>
       </c>
       <c r="G6" t="n">
-        <v>1.446387206578232</v>
+        <v>2.612989857897112</v>
       </c>
       <c r="H6" t="n">
-        <v>0.7721331937639673</v>
+        <v>1.014710165543741</v>
       </c>
       <c r="I6" t="n">
-        <v>0.03410522925532643</v>
+        <v>0.8337526498380475</v>
       </c>
       <c r="J6" t="n">
-        <v>0.6351679741816711</v>
+        <v>1.096877613139564</v>
       </c>
       <c r="K6" t="n">
-        <v>0.2004614495183637</v>
+        <v>0.6145953838396259</v>
       </c>
       <c r="L6" t="n">
-        <v>1.617852310114706</v>
+        <v>0.7829913427664851</v>
       </c>
       <c r="M6" t="n">
-        <v>0.2036185169603456</v>
+        <v>0.6242746467651129</v>
       </c>
       <c r="N6" t="n">
-        <v>136.4285332898038</v>
+        <v>35.94716456060354</v>
       </c>
       <c r="O6" t="n">
-        <v>277.7637058330202</v>
+        <v>72.91174814882936</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_4</t>
+          <t>model_1_23_5</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9901691108639138</v>
+        <v>0.840768971046247</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7835571844268736</v>
+        <v>0.6087956453898876</v>
       </c>
       <c r="D7" t="n">
-        <v>0.7841972995739732</v>
+        <v>0.71518689716441</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9944192776031627</v>
+        <v>0.7546070689369433</v>
       </c>
       <c r="F7" t="n">
-        <v>0.04092133848256156</v>
+        <v>0.3774082121143088</v>
       </c>
       <c r="G7" t="n">
-        <v>1.447354104365021</v>
+        <v>2.615985320608242</v>
       </c>
       <c r="H7" t="n">
-        <v>0.7719137464643773</v>
+        <v>1.018759954430345</v>
       </c>
       <c r="I7" t="n">
-        <v>0.03435564266360983</v>
+        <v>0.8613560880251095</v>
       </c>
       <c r="J7" t="n">
-        <v>0.639285697214073</v>
+        <v>1.042931038518461</v>
       </c>
       <c r="K7" t="n">
-        <v>0.2022902332851529</v>
+        <v>0.6143355859091257</v>
       </c>
       <c r="L7" t="n">
-        <v>1.629176904709517</v>
+        <v>0.7831747690842513</v>
       </c>
       <c r="M7" t="n">
-        <v>0.2054761022433487</v>
+        <v>0.62401075727691</v>
       </c>
       <c r="N7" t="n">
-        <v>136.3922072573873</v>
+        <v>35.94885577315015</v>
       </c>
       <c r="O7" t="n">
-        <v>277.7273798006037</v>
+        <v>72.91343936137598</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_3</t>
+          <t>model_1_23_6</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.9899861456290538</v>
+        <v>0.8401679654298134</v>
       </c>
       <c r="C8" t="n">
-        <v>0.783409729720933</v>
+        <v>0.6083217679700426</v>
       </c>
       <c r="D8" t="n">
-        <v>0.7842617042157948</v>
+        <v>0.7136006204438737</v>
       </c>
       <c r="E8" t="n">
-        <v>0.9943692892601723</v>
+        <v>0.7469582846873106</v>
       </c>
       <c r="F8" t="n">
-        <v>0.04168293615725841</v>
+        <v>0.3788327112000664</v>
       </c>
       <c r="G8" t="n">
-        <v>1.448340134662612</v>
+        <v>2.619154141096751</v>
       </c>
       <c r="H8" t="n">
-        <v>0.7716833747949774</v>
+        <v>1.024433974282093</v>
       </c>
       <c r="I8" t="n">
-        <v>0.03466337731281957</v>
+        <v>0.8882041592016944</v>
       </c>
       <c r="J8" t="n">
-        <v>0.6436208044813578</v>
+        <v>1.01784945320696</v>
       </c>
       <c r="K8" t="n">
-        <v>0.20416399329279</v>
+        <v>0.6154938758428603</v>
       </c>
       <c r="L8" t="n">
-        <v>1.640886679740554</v>
+        <v>0.7823563784576183</v>
       </c>
       <c r="M8" t="n">
-        <v>0.2073793720980333</v>
+        <v>0.6251872891192358</v>
       </c>
       <c r="N8" t="n">
-        <v>136.3553268775729</v>
+        <v>35.94132113318751</v>
       </c>
       <c r="O8" t="n">
-        <v>277.6904994207893</v>
+        <v>72.90590472141334</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_2</t>
+          <t>model_1_23_7</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.989796559934195</v>
+        <v>0.8383448598688767</v>
       </c>
       <c r="C9" t="n">
-        <v>0.7832598311509025</v>
+        <v>0.6057753844662669</v>
       </c>
       <c r="D9" t="n">
-        <v>0.7843276088296569</v>
+        <v>0.7103032232738931</v>
       </c>
       <c r="E9" t="n">
-        <v>0.9943099900726853</v>
+        <v>0.7335712758592812</v>
       </c>
       <c r="F9" t="n">
-        <v>0.04247209167344568</v>
+        <v>0.3831538225737084</v>
       </c>
       <c r="G9" t="n">
-        <v>1.449342507090627</v>
+        <v>2.636181819311516</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7714476378125618</v>
+        <v>1.036228572765041</v>
       </c>
       <c r="I9" t="n">
-        <v>0.03502843071463352</v>
+        <v>0.9351940276731134</v>
       </c>
       <c r="J9" t="n">
-        <v>0.6484333967745263</v>
+        <v>1.001539463045386</v>
       </c>
       <c r="K9" t="n">
-        <v>0.2060875825309368</v>
+        <v>0.6189942023748756</v>
       </c>
       <c r="L9" t="n">
-        <v>1.653020164211519</v>
+        <v>0.7798738517363428</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2093332559437971</v>
+        <v>0.6287427422950874</v>
       </c>
       <c r="N9" t="n">
-        <v>136.3178161705176</v>
+        <v>35.91863748982522</v>
       </c>
       <c r="O9" t="n">
-        <v>277.652988713734</v>
+        <v>72.88322107805104</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_1</t>
+          <t>model_1_23_8</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.9895994755374603</v>
+        <v>0.8384251689206854</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7831097606470998</v>
+        <v>0.5991649756330536</v>
       </c>
       <c r="D10" t="n">
-        <v>0.7843892838191833</v>
+        <v>0.7090127328019853</v>
       </c>
       <c r="E10" t="n">
-        <v>0.9942370660686062</v>
+        <v>0.7231429098590583</v>
       </c>
       <c r="F10" t="n">
-        <v>0.04329246073638317</v>
+        <v>0.3829634746505751</v>
       </c>
       <c r="G10" t="n">
-        <v>1.450346029240566</v>
+        <v>2.680385653617347</v>
       </c>
       <c r="H10" t="n">
-        <v>0.7712270299511473</v>
+        <v>1.040844582356119</v>
       </c>
       <c r="I10" t="n">
-        <v>0.03547736023443217</v>
+        <v>0.9717987354922553</v>
       </c>
       <c r="J10" t="n">
-        <v>0.6559879172478608</v>
+        <v>0.8417664623452441</v>
       </c>
       <c r="K10" t="n">
-        <v>0.2080684039838417</v>
+        <v>0.6188404274532935</v>
       </c>
       <c r="L10" t="n">
-        <v>1.665633565602541</v>
+        <v>0.7799832087430609</v>
       </c>
       <c r="M10" t="n">
-        <v>0.2113452733544903</v>
+        <v>0.6285865455722091</v>
       </c>
       <c r="N10" t="n">
-        <v>136.2795535521529</v>
+        <v>35.91963132159349</v>
       </c>
       <c r="O10" t="n">
-        <v>277.6147260953693</v>
+        <v>72.88421490981931</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
         <is>
-          <t>model_1_23_0</t>
+          <t>model_1_23_9</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.9893955678410039</v>
+        <v>0.8381244887673139</v>
       </c>
       <c r="C11" t="n">
-        <v>0.7829516160485935</v>
+        <v>0.5988350076790341</v>
       </c>
       <c r="D11" t="n">
-        <v>0.7844516272230567</v>
+        <v>0.7085677411773564</v>
       </c>
       <c r="E11" t="n">
-        <v>0.9941526834373019</v>
+        <v>0.721830651279999</v>
       </c>
       <c r="F11" t="n">
-        <v>0.04414123196657251</v>
+        <v>0.3836761445356335</v>
       </c>
       <c r="G11" t="n">
-        <v>1.451403542898966</v>
+        <v>2.682592150845238</v>
       </c>
       <c r="H11" t="n">
-        <v>0.7710040312103702</v>
+        <v>1.042436291595319</v>
       </c>
       <c r="I11" t="n">
-        <v>0.03599683053271238</v>
+        <v>0.9764049069546494</v>
       </c>
       <c r="J11" t="n">
-        <v>0.6638596533804908</v>
+        <v>0.8454597057607379</v>
       </c>
       <c r="K11" t="n">
-        <v>0.2100981484130036</v>
+        <v>0.6194159705203228</v>
       </c>
       <c r="L11" t="n">
-        <v>1.67868365817575</v>
+        <v>0.7795737719384701</v>
       </c>
       <c r="M11" t="n">
-        <v>0.2134069842294115</v>
+        <v>0.6291711528672121</v>
       </c>
       <c r="N11" t="n">
-        <v>136.2407219362174</v>
+        <v>35.91591291167827</v>
       </c>
       <c r="O11" t="n">
-        <v>277.5758944794338</v>
+        <v>72.8804964999041</v>
       </c>
     </row>
   </sheetData>
